--- a/validited.xlsx
+++ b/validited.xlsx
@@ -14,81 +14,483 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>验证</t>
-  </si>
-  <si>
-    <t>krista@carrollscountertops.com</t>
-  </si>
-  <si>
-    <t>tvandoren@innovative-surfacesllc.com</t>
-  </si>
-  <si>
-    <t>bcorbin@premiersurfaces.com</t>
-  </si>
-  <si>
-    <t>lhough@arizonatile.com</t>
-  </si>
-  <si>
-    <t>bob@msistone.com</t>
-  </si>
-  <si>
-    <t>jsalveson@andrewlauren.com</t>
-  </si>
-  <si>
-    <t>ahollins@arizonatile.com</t>
-  </si>
-  <si>
-    <t>bill@fox-marble.com</t>
-  </si>
-  <si>
-    <t>GinoRinaldi@MSN.com</t>
-  </si>
-  <si>
-    <t>globalstone@msn.com</t>
-  </si>
-  <si>
-    <t>vince@grimatileandstone.com</t>
-  </si>
-  <si>
-    <t>john@haussmannstone.com</t>
-  </si>
-  <si>
-    <t>MLudovisi@AOL.com</t>
-  </si>
-  <si>
-    <t>paul@instonemarble.com</t>
-  </si>
-  <si>
-    <t>irgi@marblecompany.com</t>
-  </si>
-  <si>
-    <t>rriggs@intertile.com</t>
-  </si>
-  <si>
-    <t>ky@kemperyorkco.com</t>
-  </si>
-  <si>
-    <t>stoneboss1@aol.com</t>
-  </si>
-  <si>
-    <t>sunil@msistone.com</t>
-  </si>
-  <si>
-    <t>vmarazita@gmail.com</t>
-  </si>
-  <si>
-    <t>Not sure</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>Valid</t>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>doug_sampson@acmd.com</t>
+  </si>
+  <si>
+    <t>rrountree@cadretech.com</t>
+  </si>
+  <si>
+    <t>megan.smith@symbia.com</t>
+  </si>
+  <si>
+    <t>drice@xborderus.com</t>
+  </si>
+  <si>
+    <t>KBartolo@Flexport.com</t>
+  </si>
+  <si>
+    <t>min@sjdist.com</t>
+  </si>
+  <si>
+    <t>Kelsey.Lally@transpak.com</t>
+  </si>
+  <si>
+    <t>allen.amos@epicbrokers.com</t>
+  </si>
+  <si>
+    <t>brian.jones@peak-fulfillment.com</t>
+  </si>
+  <si>
+    <t>roark.janis@spherewms.com</t>
+  </si>
+  <si>
+    <t>markgallucci@odysseylogistics.com</t>
+  </si>
+  <si>
+    <t>tkennedy@williambmeyer.com</t>
+  </si>
+  <si>
+    <t>tjensen@ups.com</t>
+  </si>
+  <si>
+    <t>Michael@globalresponse3pl.com</t>
+  </si>
+  <si>
+    <t>moving@lmands.com</t>
+  </si>
+  <si>
+    <t>Sales@SCLogistics.com</t>
+  </si>
+  <si>
+    <t>miriam.wohlers@hartrodt.com</t>
+  </si>
+  <si>
+    <t>luis@gofreighthub.io</t>
+  </si>
+  <si>
+    <t>dbaquerizo@magaya.com</t>
+  </si>
+  <si>
+    <t>joshua_grodin@ryder.com</t>
+  </si>
+  <si>
+    <t>lolson@datexcorp.com</t>
+  </si>
+  <si>
+    <t>jjordan@tlsorl.com</t>
+  </si>
+  <si>
+    <t>recheumuna@bhworldwide.com</t>
+  </si>
+  <si>
+    <t>todd.g@eworldfulfillment.com</t>
+  </si>
+  <si>
+    <t>airbornefcs@gmail.com</t>
+  </si>
+  <si>
+    <t>christiantelles@granerointernational.com</t>
+  </si>
+  <si>
+    <t>alissenden@naroofing.com</t>
+  </si>
+  <si>
+    <t>drew.clark@primekss.com</t>
+  </si>
+  <si>
+    <t>ejw@coregistics.com</t>
+  </si>
+  <si>
+    <t>jeff.byma@aptean.com</t>
+  </si>
+  <si>
+    <t>hisham@hapigig.com</t>
+  </si>
+  <si>
+    <t>brian@sesol.net</t>
+  </si>
+  <si>
+    <t>bclenney@aswdl.com</t>
+  </si>
+  <si>
+    <t>colinsmith@usffcl.com</t>
+  </si>
+  <si>
+    <t>jeff.mcconnell@ioausa.com</t>
+  </si>
+  <si>
+    <t>dstoll@mwdist.com</t>
+  </si>
+  <si>
+    <t>info@mantis.email</t>
+  </si>
+  <si>
+    <t>kyle.richards@ntgfreight.com</t>
+  </si>
+  <si>
+    <t>tlove@rollins.com</t>
+  </si>
+  <si>
+    <t>cmcgee@pjins.com</t>
+  </si>
+  <si>
+    <t>contact@roadsync.com</t>
+  </si>
+  <si>
+    <t>kduncan@edts.com</t>
+  </si>
+  <si>
+    <t>frank@RBWLOGISTICS.com</t>
+  </si>
+  <si>
+    <t>bkastick@portfreshlogistics.com</t>
+  </si>
+  <si>
+    <t>will@gbwpartners.com</t>
+  </si>
+  <si>
+    <t>tom@getdropstream.com</t>
+  </si>
+  <si>
+    <t>mike.owens@hwclogistics.com</t>
+  </si>
+  <si>
+    <t>dean@swaonline.org</t>
+  </si>
+  <si>
+    <t>info@shipperswarehouse.com</t>
+  </si>
+  <si>
+    <t>sales@a2bf.com</t>
+  </si>
+  <si>
+    <t>joe.keith@atlantabonded.com</t>
+  </si>
+  <si>
+    <t>nkrock@peachstateinc.com</t>
+  </si>
+  <si>
+    <t>brobinson@portcitylogistics.com</t>
+  </si>
+  <si>
+    <t>vhart@simossolutions.com</t>
+  </si>
+  <si>
+    <t>tom@gilmer1.com</t>
+  </si>
+  <si>
+    <t>justin.redmond@dsicompanies.com</t>
+  </si>
+  <si>
+    <t>dmerrill@certifiedlogistics.com</t>
+  </si>
+  <si>
+    <t>pauleverett@outsourcelogistics.com</t>
+  </si>
+  <si>
+    <t>michelleb@dsrhawaii.com</t>
+  </si>
+  <si>
+    <t>info@beltslogistics.com</t>
+  </si>
+  <si>
+    <t>steve@iwest.com</t>
+  </si>
+  <si>
+    <t>saltergott@associated-solutions.com</t>
+  </si>
+  <si>
+    <t>dcole@firstlogisticsllc.com</t>
+  </si>
+  <si>
+    <t>dw@nexusdistribution.com</t>
+  </si>
+  <si>
+    <t>hbauer@nawarehouse.com</t>
+  </si>
+  <si>
+    <t>randolph.smith@us.gt.com</t>
+  </si>
+  <si>
+    <t>alan@twinlaketrucking.com</t>
+  </si>
+  <si>
+    <t>tholland@hayscompanies.com</t>
+  </si>
+  <si>
+    <t>jminghini@fwresults.com</t>
+  </si>
+  <si>
+    <t>Jhorvath@hlpc-law.com</t>
+  </si>
+  <si>
+    <t>tc@argents.com</t>
+  </si>
+  <si>
+    <t>mschiek@nadci.com</t>
+  </si>
+  <si>
+    <t>kthongvanh@avalonrisk.com</t>
+  </si>
+  <si>
+    <t>jterrell@rebstorage.com</t>
+  </si>
+  <si>
+    <t>rob.levin@republicpartners.com</t>
+  </si>
+  <si>
+    <t>rory2@neillcartage.com</t>
+  </si>
+  <si>
+    <t>kphillips@scopelitis.com</t>
+  </si>
+  <si>
+    <t>Mbrown@bulletproofmidwest.com</t>
+  </si>
+  <si>
+    <t>mswade@indgrp.com</t>
+  </si>
+  <si>
+    <t>wmiller@faurebros.com</t>
+  </si>
+  <si>
+    <t>bstoddard@parkewarehouses.com</t>
+  </si>
+  <si>
+    <t>kaman@cargo-partner.com</t>
+  </si>
+  <si>
+    <t>sdehaan@IWLA.com</t>
+  </si>
+  <si>
+    <t>Ttaylor@worldwidelp.com</t>
+  </si>
+  <si>
+    <t>kthannon@rsexpress.com</t>
+  </si>
+  <si>
+    <t>shirota@senko-usa.com</t>
+  </si>
+  <si>
+    <t>Jason.henney@grainger.com</t>
+  </si>
+  <si>
+    <t>chris.oechsel@zethcon.com</t>
+  </si>
+  <si>
+    <t>bjung@jungtruck.com</t>
+  </si>
+  <si>
+    <t>agizzi@jbstrans.com</t>
+  </si>
+  <si>
+    <t>mikeholland@midwestwarehouse.com</t>
+  </si>
+  <si>
+    <t>rkriegsman@kmi-kriegsman.com</t>
+  </si>
+  <si>
+    <t>dave.altorfer@unifac.com</t>
+  </si>
+  <si>
+    <t>vito_galloro@artexrisk.com</t>
+  </si>
+  <si>
+    <t>kallmandinger@komatsuna.com</t>
+  </si>
+  <si>
+    <t>mrisser@dist2000.com</t>
+  </si>
+  <si>
+    <t>jpennington@lesaint.com</t>
+  </si>
+  <si>
+    <t>rich.hamilton@cushwake.com</t>
+  </si>
+  <si>
+    <t>dnelson@assuranceagency.com</t>
+  </si>
+  <si>
+    <t>doug@kannenterprises.com</t>
+  </si>
+  <si>
+    <t>sharonrejsek@mccloudservices.com</t>
+  </si>
+  <si>
+    <t>tswift@hillierstg.com</t>
+  </si>
+  <si>
+    <t>marketing@fidelitone.com</t>
+  </si>
+  <si>
+    <t>edborkowski@midwestwarehouse.com</t>
+  </si>
+  <si>
+    <t>kmundt@envistacorp.com</t>
+  </si>
+  <si>
+    <t>kschmidt@dayscorp.com</t>
+  </si>
+  <si>
+    <t>gparrish@cwclogon.com</t>
+  </si>
+  <si>
+    <t>mike.glover@directshotdist.com</t>
+  </si>
+  <si>
+    <t>ken.yerkes@btlaw.com</t>
+  </si>
+  <si>
+    <t>tomd@scannellproperties.com</t>
+  </si>
+  <si>
+    <t>pete.quinn@colliers.com</t>
+  </si>
+  <si>
+    <t>mwillett@venturelogistics.com</t>
+  </si>
+  <si>
+    <t>jamie.jones@dukerealty.com</t>
+  </si>
+  <si>
+    <t>mbean@307corp.com</t>
+  </si>
+  <si>
+    <t>jbunce@msl-indy.com</t>
+  </si>
+  <si>
+    <t>clark.cassell@eii-online.com</t>
+  </si>
+  <si>
+    <t>bmcfarlin@piperlogistics.com</t>
+  </si>
+  <si>
+    <t>mdefabis@idsfulfillment.com</t>
+  </si>
+  <si>
+    <t>swasser@progressivelogistics.com</t>
+  </si>
+  <si>
+    <t>tthias@ranger3pl.com</t>
+  </si>
+  <si>
+    <t>andy@hendricks-company.com</t>
+  </si>
+  <si>
+    <t>sdickensheets@TFPublishing.com</t>
+  </si>
+  <si>
+    <t>lherzog@sdcdc.com</t>
+  </si>
+  <si>
+    <t>terryblunt@ferrellgas.com</t>
+  </si>
+  <si>
+    <t>bschaefer@unitedwarehouse.com</t>
+  </si>
+  <si>
+    <t>carlw@smartwarehousing.com</t>
+  </si>
+  <si>
+    <t>donnie.johnson@hy-tek.com</t>
+  </si>
+  <si>
+    <t>jpierce@wtyoung.com</t>
+  </si>
+  <si>
+    <t>jmiddendorf@centennialwarehouse.com</t>
+  </si>
+  <si>
+    <t>Jennifer.sampson@go2partners.com</t>
+  </si>
+  <si>
+    <t>rich@itswarehouse.com</t>
+  </si>
+  <si>
+    <t>gregd@merchantsdsm.com</t>
+  </si>
+  <si>
+    <t>ed.campbell@landoll.com</t>
+  </si>
+  <si>
+    <t>bill.marks@derbyllc.com</t>
+  </si>
+  <si>
+    <t>swedlan@mpwus.com</t>
+  </si>
+  <si>
+    <t>mmcdonald@advancedistribution.com</t>
+  </si>
+  <si>
+    <t>dpavey@mercury-logistics.com</t>
+  </si>
+  <si>
+    <t>mpayne@owensbororiverport.com</t>
+  </si>
+  <si>
+    <t>bwagner@wagnerenterprises.com</t>
+  </si>
+  <si>
+    <t>jantrobus@verstlogistics.com</t>
+  </si>
+  <si>
+    <t>rlwilkes@browneagle.com</t>
+  </si>
+  <si>
+    <t>robertb@wilsonwarehouse.com</t>
+  </si>
+  <si>
+    <t>abcolley@dupuygroup.com</t>
+  </si>
+  <si>
+    <t>gmassamillo@posigensolarsupport.com</t>
+  </si>
+  <si>
+    <t>gwohlfort@abacuscorporation.com</t>
+  </si>
+  <si>
+    <t>kathleen.haines@accessworld.com</t>
+  </si>
+  <si>
+    <t>j.moors@us.steinweg.com</t>
+  </si>
+  <si>
+    <t>bcavanaugh@termcorp.com</t>
+  </si>
+  <si>
+    <t>rspooner@oceanair.net</t>
+  </si>
+  <si>
+    <t>abarrett@barrettdistribution.com</t>
+  </si>
+  <si>
+    <t>jfaber@dononvanlogistics.com</t>
+  </si>
+  <si>
+    <t>bshowstack@radford1.com</t>
+  </si>
+  <si>
+    <t>ntaglic@6river.com</t>
+  </si>
+  <si>
+    <t>j.smylie@ancrasystems.com</t>
+  </si>
+  <si>
+    <t>SShaheen@definitivetg.com</t>
+  </si>
+  <si>
+    <t>mchristie@cmactrans.com</t>
+  </si>
+  <si>
+    <t>jlum@locusrobotics.com</t>
   </si>
 </sst>
 </file>
@@ -446,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,8 +869,8 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -478,8 +880,8 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
+      <c r="C3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -489,8 +891,8 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -500,8 +902,8 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -511,8 +913,8 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
+      <c r="C6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -522,8 +924,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -533,8 +935,8 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
+      <c r="C8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -544,8 +946,8 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
+      <c r="C9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -555,8 +957,8 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
+      <c r="C10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -566,8 +968,8 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
+      <c r="C11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -577,8 +979,8 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
+      <c r="C12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -588,8 +990,8 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>22</v>
+      <c r="C13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -599,8 +1001,8 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
+      <c r="C14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -610,8 +1012,8 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
+      <c r="C15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -621,8 +1023,8 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>22</v>
+      <c r="C16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -632,8 +1034,8 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>22</v>
+      <c r="C17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -643,8 +1045,8 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>22</v>
+      <c r="C18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -654,8 +1056,8 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
+      <c r="C19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -665,8 +1067,8 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>24</v>
+      <c r="C20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -676,8 +1078,1515 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
